--- a/lista_aluno.xlsx
+++ b/lista_aluno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernanda\Estudos\Meto\modelagem-sistema\atv_uml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E345A91D-0F4D-4E7E-8A24-7913E496039E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0448A2-E6D9-4596-B53D-05B1C5EE61BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6030" yWindow="1740" windowWidth="15375" windowHeight="7785" xr2:uid="{4C06C122-710E-492D-B908-55B5E7D2DA63}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nome</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Lucar Cardoso</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,10 +478,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>

--- a/lista_aluno.xlsx
+++ b/lista_aluno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernanda\Estudos\Meto\modelagem-sistema\atv_uml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0448A2-E6D9-4596-B53D-05B1C5EE61BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C63C9-9489-4DCD-86CA-8E9C108C00FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6030" yWindow="1740" windowWidth="15375" windowHeight="7785" xr2:uid="{4C06C122-710E-492D-B908-55B5E7D2DA63}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Nome</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Luiza Silva</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,10 +495,18 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>

--- a/lista_aluno.xlsx
+++ b/lista_aluno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernanda\Estudos\Meto\modelagem-sistema\atv_uml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C63C9-9489-4DCD-86CA-8E9C108C00FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A9D83F-4546-4C38-927F-0C043C8E2090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6030" yWindow="1740" windowWidth="15375" windowHeight="7785" xr2:uid="{4C06C122-710E-492D-B908-55B5E7D2DA63}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Nome</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Luiza Silva</t>
+  </si>
+  <si>
+    <t>Karina Ribeiro</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,10 +512,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/lista_aluno.xlsx
+++ b/lista_aluno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernanda\Estudos\Meto\modelagem-sistema\atv_uml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A9D83F-4546-4C38-927F-0C043C8E2090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3272724C-64DC-45AB-A470-DD2E1D3E67BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6030" yWindow="1740" windowWidth="15375" windowHeight="7785" xr2:uid="{4C06C122-710E-492D-B908-55B5E7D2DA63}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Nome</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Karina Ribeiro</t>
+  </si>
+  <si>
+    <t>Luana Byd</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +529,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
